--- a/11_仕様書/領地奪取仕様書.xlsx
+++ b/11_仕様書/領地奪取仕様書.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="プロトタイプ" sheetId="3" r:id="rId2"/>
-    <sheet name="α" sheetId="4" r:id="rId3"/>
-    <sheet name="β" sheetId="5" r:id="rId4"/>
+    <sheet name="α" sheetId="6" r:id="rId3"/>
+    <sheet name="β" sheetId="7" r:id="rId4"/>
     <sheet name="クラス設計" sheetId="2" r:id="rId5"/>
+    <sheet name="テリトリー取得の仕様" sheetId="8" r:id="rId6"/>
+    <sheet name="その他仕様" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>プロトタイプ</t>
     <phoneticPr fontId="1"/>
@@ -136,12 +138,131 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>目次</t>
+    <rPh sb="0" eb="2">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス設計シート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>βシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>αシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイプシート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テリトリー取得処理の実装</t>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テリトリー奪取の失敗例</t>
+    <rPh sb="5" eb="7">
+      <t>ダッシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描ける時間</t>
+    <rPh sb="0" eb="1">
+      <t>エガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領地によって変動させる</t>
+    <rPh sb="0" eb="1">
+      <t>リョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラインに別のプレイヤーが当たる</t>
+    <rPh sb="4" eb="5">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間が切れる</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テリトリー奪取に失敗したら</t>
+    <rPh sb="5" eb="7">
+      <t>ダッシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初の起点は取得する</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +285,53 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="HGPｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="HGSｺﾞｼｯｸE"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +341,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -181,21 +349,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -246,7 +561,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="1" cap="none" spc="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="5400" b="0" cap="none" spc="0">
               <a:ln w="13462">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
@@ -264,6 +579,8 @@
                   <a:schemeClr val="accent5"/>
                 </a:outerShdw>
               </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>領地奪取仕様書</a:t>
           </a:r>
@@ -310,7 +627,7 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="1" cap="none" spc="0">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
               <a:ln w="13462">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
@@ -328,8 +645,362 @@
                   <a:schemeClr val="accent5"/>
                 </a:outerShdw>
               </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>プロトタイプで実装すること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1546860" cy="473092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="1303020"/>
+          <a:ext cx="1546860" cy="473092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>優先順位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> 高</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="13462">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1546860" cy="473092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="3002280"/>
+          <a:ext cx="1546860" cy="473092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>優先順位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> 低</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="13462">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097280" y="1813560"/>
+          <a:ext cx="419100" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5219700" cy="854092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="60960"/>
+          <a:ext cx="5219700" cy="854092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>α</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>版で実装すること</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -601,7 +1272,359 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5097780" cy="854092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198120" y="60960"/>
+          <a:ext cx="5097780" cy="854092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>β</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="4400" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>版で実装すること</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1546860" cy="473092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="1303020"/>
+          <a:ext cx="1546860" cy="473092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>優先順位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> 高</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="13462">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1546860" cy="473092"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="518160" y="3002280"/>
+          <a:ext cx="1546860" cy="473092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>優先順位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0" baseline="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t> 低</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000" b="0" cap="none" spc="0">
+            <a:ln w="13462">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                <a:schemeClr val="accent5"/>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1097280" y="1813560"/>
+          <a:ext cx="419100" cy="1150620"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1498,11 +2521,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>570000</xdr:colOff>
+      <xdr:colOff>622097</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>91539</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2321661" cy="425822"/>
+    <xdr:ext cx="2217466" cy="425822"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="正方形/長方形 23"/>
@@ -1510,8 +2533,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1244914" y="777339"/>
-          <a:ext cx="2321661" cy="425822"/>
+          <a:off x="1288847" y="777339"/>
+          <a:ext cx="2217466" cy="425822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,7 +2570,31 @@
               <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・・・ 派生クラス</a:t>
+            <a:t>・・・ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>派生クラス</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1557,11 +2604,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>538398</xdr:colOff>
+      <xdr:colOff>651089</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>167739</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3604064" cy="425822"/>
+    <xdr:ext cx="3378682" cy="425822"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="正方形/長方形 24"/>
@@ -1569,8 +2616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1213312" y="167739"/>
-          <a:ext cx="3604064" cy="425822"/>
+          <a:off x="1326003" y="167739"/>
+          <a:ext cx="3378682" cy="425822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1606,7 +2653,31 @@
               <a:latin typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ｺﾞｼｯｸUB" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>・・・ メンバ変数として使用</a:t>
+            <a:t>・・・ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGPｺﾞｼｯｸE" panose="020B0900000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>メンバ変数として使用</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2686,51 +3757,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:B9"/>
+  <dimension ref="B6:C11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.69921875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
+    <row r="6" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="2:3" ht="33" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="2:3" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="9" spans="2:3" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="10" spans="2:3" s="10" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+    <row r="11" spans="2:3" s="10" customFormat="1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="6" t="s">
         <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C8" location="プロトタイプ!A1" display="プロトタイプ!A1"/>
+    <hyperlink ref="C9" location="α!A1" display="α!A1"/>
+    <hyperlink ref="C10" location="β!A1" display="β!A1"/>
+    <hyperlink ref="C11" location="クラス設計!A1" display="クラス設計!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F7:F13"/>
+  <dimension ref="F7:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:M13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2754,21 +3851,26 @@
     </row>
     <row r="10" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F14" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2782,31 +3884,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F7:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F7:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="F7" sqref="F7:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="6:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F13" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2814,8 +3970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2824,4 +3980,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>